--- a/DATA_goal/Junction_Flooding_353.xlsx
+++ b/DATA_goal/Junction_Flooding_353.xlsx
@@ -655,103 +655,103 @@
         <v>44076.59097222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.42</v>
+        <v>14.2</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.46</v>
+        <v>4.56</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.7</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.41</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.56</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>10.13</v>
+        <v>101.32</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.66</v>
+        <v>6.59</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.22</v>
+        <v>12.19</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.91</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.55</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.11</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.86</v>
+        <v>8.57</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.09</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.69</v>
+        <v>16.88</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44076.59791666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.48</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.45</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.71</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.28</v>
+        <v>12.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.29</v>
       </c>
       <c r="H3" s="4" t="n">
+        <v>22.47</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>7.28</v>
+      </c>
+      <c r="N3" s="4" t="n">
         <v>2.25</v>
       </c>
-      <c r="I3" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.22</v>
-      </c>
       <c r="O3" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.51</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>8.42</v>
+        <v>84.23</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.68</v>
+        <v>16.85</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.84</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.84</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.22</v>
+        <v>12.15</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.08</v>
+        <v>20.76</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44076.60486111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.15</v>
+        <v>11.5</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.88</v>
+        <v>8.82</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.73</v>
+        <v>17.26</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.63</v>
+        <v>6.32</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.89</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.61</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.46</v>
+        <v>4.58</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.5</v>
+        <v>5.03</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.54</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.57</v>
+        <v>5.65</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.56</v>
+        <v>55.62</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.64</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.75</v>
+        <v>7.5</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.52</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.9</v>
+        <v>8.98</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.62</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.6</v>
+        <v>15.99</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.6</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.89</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.87</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.01</v>
+        <v>20.08</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.85</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.85</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.67</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.35</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.28</v>
+        <v>72.77</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.69</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.86</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.27</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.55</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.48</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.63</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_353.xlsx
+++ b/DATA_goal/Junction_Flooding_353.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44076.59097222222</v>
+        <v>45034.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.82</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.24</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.79</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.6</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.2</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.89</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.28</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.96</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.56</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.7</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.76</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.68</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.88</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.14</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.41</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.78</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.56</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.75</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.32</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>19.6</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.59</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.19</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.91</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.8</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.55</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.82</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.51</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.11</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.57</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.09</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.88</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.33</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.24</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44076.59791666667</v>
+        <v>45034.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.48</v>
+        <v>5.966</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.45</v>
+        <v>4.535</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.34</v>
+        <v>0.599</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.71</v>
+        <v>13.216</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.77</v>
+        <v>10.406</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.29</v>
+        <v>4.154</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.47</v>
+        <v>17.694</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>7.333</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.11</v>
+        <v>3.732</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.28</v>
+        <v>4.605</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.65</v>
+        <v>5.247</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.28</v>
+        <v>5.938</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.25</v>
+        <v>2.095</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.02</v>
+        <v>4.888</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.220000000000001</v>
+        <v>6.522</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.54</v>
+        <v>4.252</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.199</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.532</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.23</v>
+        <v>67.062</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.85</v>
+        <v>13.698</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.55</v>
+        <v>4.511</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.84</v>
+        <v>8.756</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.84</v>
+        <v>5.087</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.671</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.15</v>
+        <v>10.066</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.9</v>
+        <v>3.686</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.54</v>
+        <v>3.9</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.23</v>
+        <v>4.666</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.14</v>
+        <v>6.215</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.97</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.76</v>
+        <v>16.639</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.91</v>
+        <v>2.848</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.94</v>
+        <v>5.338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44076.60486111111</v>
+        <v>45034.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.13</v>
+        <v>19.981</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.75</v>
+        <v>15.027</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.921</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.5</v>
+        <v>43.703</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.82</v>
+        <v>35.711</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.61</v>
+        <v>15.331</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.26</v>
+        <v>57.172</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.32</v>
+        <v>24.262</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.89</v>
+        <v>11.249</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.61</v>
+        <v>16.01</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.58</v>
+        <v>17.493</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.03</v>
+        <v>18.773</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.54</v>
+        <v>5.447</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.14</v>
+        <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.65</v>
+        <v>22.226</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.82</v>
+        <v>13.256</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.48</v>
+        <v>0.244</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.35</v>
+        <v>0.825</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.62</v>
+        <v>233.017</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.64</v>
+        <v>44.069</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.82</v>
+        <v>14.575</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.5</v>
+        <v>29.486</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>4</v>
+        <v>15.857</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.52</v>
+        <v>2.084</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.98</v>
+        <v>29.373</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.37</v>
+        <v>12.668</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.13</v>
+        <v>11.601</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.62</v>
+        <v>13.678</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.89</v>
+        <v>18.82</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.64</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.99</v>
+        <v>52.188</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.99</v>
+        <v>8.507999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.77</v>
+        <v>18.015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44076.61180555556</v>
+        <v>45034.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.6</v>
+        <v>21.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.89</v>
+        <v>16.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.63</v>
+        <v>46.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.58</v>
+        <v>38.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.87</v>
+        <v>16.58</v>
       </c>
       <c r="H5" s="4" t="n">
+        <v>65.77</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>26.04</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>17.24</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>18.79</v>
+      </c>
+      <c r="M5" s="4" t="n">
         <v>20.08</v>
       </c>
-      <c r="I5" s="4" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>4.93</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>6.33</v>
-      </c>
       <c r="N5" s="4" t="n">
-        <v>1.85</v>
+        <v>5.73</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.26</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.3</v>
+        <v>23.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.67</v>
+        <v>14.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.38</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.77</v>
+        <v>250.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.69</v>
+        <v>47.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.86</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>31.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.12</v>
+        <v>16.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.68</v>
+        <v>2.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.27</v>
+        <v>32.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>13.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.9</v>
+        <v>12.35</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.55</v>
+        <v>14.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.2</v>
+        <v>20.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.29</v>
+        <v>60.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.63</v>
+        <v>9.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.07</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.61875</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.86</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
+        <v>19.37</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_353.xlsx
+++ b/DATA_goal/Junction_Flooding_353.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45034.50694444445</v>
+        <v>44076.59097222222</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>8.821999999999999</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>6.243</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>2.794</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>19.605</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>14.205</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>5.893</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>19.279</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>10.957</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>4.563</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>5.697</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>7.759</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>8.683999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>2.881</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>7.143</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>9.409000000000001</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>6.779</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>1.556</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>0.752</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>101.319</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>19.6</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>6.594</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>12.192</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>6.907</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>0.798</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>11.548</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>5.824</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>5.505</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>6.107</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>8.566000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>2.095</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>16.882</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>3.332</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>8.242000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45034.51388888889</v>
+        <v>44076.59791666667</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>5.966</v>
+        <v>7.477</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.535</v>
+        <v>5.451</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.599</v>
+        <v>1.339</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.216</v>
+        <v>16.708</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>10.406</v>
+        <v>12.774</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.154</v>
+        <v>5.286</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.694</v>
+        <v>22.473</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.333</v>
+        <v>9.224</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.732</v>
+        <v>4.111</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.605</v>
+        <v>5.275</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.247</v>
+        <v>6.648</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.938</v>
+        <v>7.284</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.095</v>
+        <v>2.247</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.888</v>
+        <v>6.015</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>6.522</v>
+        <v>8.215999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.252</v>
+        <v>5.54</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.199</v>
+        <v>0.738</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.532</v>
+        <v>0.509</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>67.062</v>
+        <v>84.23099999999999</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>13.698</v>
+        <v>16.849</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>4.511</v>
+        <v>5.552</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>8.756</v>
+        <v>10.837</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.087</v>
+        <v>5.836</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.671</v>
+        <v>0.741</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>10.066</v>
+        <v>12.152</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>3.686</v>
+        <v>4.904</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.9</v>
+        <v>4.54</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.666</v>
+        <v>5.231</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.215</v>
+        <v>7.135</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>0.973</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>16.639</v>
+        <v>20.762</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.848</v>
+        <v>2.906</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.338</v>
+        <v>6.942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45034.52083333334</v>
+        <v>44076.60486111111</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>19.981</v>
+        <v>5.126</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.027</v>
+        <v>3.751</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.921</v>
+        <v>0.874</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>43.703</v>
+        <v>11.498</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.711</v>
+        <v>8.815</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.331</v>
+        <v>3.613</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>57.172</v>
+        <v>17.264</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>24.262</v>
+        <v>6.325</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.249</v>
+        <v>2.891</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.01</v>
+        <v>3.609</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.493</v>
+        <v>4.584</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.773</v>
+        <v>5.026</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.447</v>
+        <v>1.544</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>15.79</v>
+        <v>4.136</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.226</v>
+        <v>5.654</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.256</v>
+        <v>3.822</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.244</v>
+        <v>0.485</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.825</v>
+        <v>0.354</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>233.017</v>
+        <v>55.624</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.069</v>
+        <v>11.642</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.575</v>
+        <v>3.817</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.486</v>
+        <v>7.495</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.857</v>
+        <v>3.997</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.084</v>
+        <v>0.518</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>29.373</v>
+        <v>8.984</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.668</v>
+        <v>3.372</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.601</v>
+        <v>3.131</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.678</v>
+        <v>3.624</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.82</v>
+        <v>4.895</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.644</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>52.188</v>
+        <v>15.989</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.507999999999999</v>
+        <v>1.99</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.015</v>
+        <v>4.773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45034.52777777778</v>
+        <v>44076.61180555556</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>21.47</v>
+        <v>6.598</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>16.13</v>
+        <v>4.888</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>46.91</v>
+        <v>14.635</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>38.44</v>
+        <v>11.585</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>16.58</v>
+        <v>4.866</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>65.77</v>
+        <v>20.083</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>26.04</v>
+        <v>8.077</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>12</v>
+        <v>3.687</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>17.24</v>
+        <v>4.932</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>18.79</v>
+        <v>5.855</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>20.08</v>
+        <v>6.331</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>5.73</v>
+        <v>1.851</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16.92</v>
+        <v>5.263</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>23.93</v>
+        <v>7.296</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>14.17</v>
+        <v>4.665</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.385</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.351</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>250.2</v>
+        <v>72.76900000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>47.32</v>
+        <v>14.688</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>15.62</v>
+        <v>4.858</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>31.77</v>
+        <v>9.635</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>16.95</v>
+        <v>5.12</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.23</v>
+        <v>0.676</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>32.73</v>
+        <v>10.269</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>13.64</v>
+        <v>4.291</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>12.35</v>
+        <v>3.9</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>14.54</v>
+        <v>4.55</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>20.06</v>
+        <v>6.201</v>
       </c>
       <c r="AE5" s="4" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>18.289</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>6.074</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44076.61875</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>9.02</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>19.86</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>16.01</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.83</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>26.83</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>10.99</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.98</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>10.02</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="R6" s="4" t="n">
         <v>0.34</v>
       </c>
-      <c r="AF5" s="4" t="n">
-        <v>60.05</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>19.37</v>
+      <c r="S6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>101.39</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>19.94</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>13.58</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>24.38</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>8.24</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_353.xlsx
+++ b/DATA_goal/Junction_Flooding_353.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44076.59097222222</v>
+        <v>45034.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>8.821999999999999</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.243</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>2.794</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>19.605</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>14.205</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>5.893</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>19.279</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>10.957</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.563</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.697</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>7.759</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>8.683999999999999</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.881</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>7.143</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>9.409000000000001</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>6.779</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.556</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.752</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>101.319</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>19.6</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>6.594</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>12.192</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.907</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.798</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>11.548</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>5.824</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>5.505</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.107</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.566000000000001</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.095</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>16.882</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.332</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>8.242000000000001</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44076.59791666667</v>
+        <v>45034.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.477</v>
+        <v>5.966</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.451</v>
+        <v>4.535</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.339</v>
+        <v>0.599</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>16.708</v>
+        <v>13.216</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.774</v>
+        <v>10.406</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.286</v>
+        <v>4.154</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>22.473</v>
+        <v>17.694</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.224</v>
+        <v>7.333</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.111</v>
+        <v>3.732</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.275</v>
+        <v>4.605</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.648</v>
+        <v>5.247</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>7.284</v>
+        <v>5.938</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.247</v>
+        <v>2.095</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.015</v>
+        <v>4.888</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.215999999999999</v>
+        <v>6.522</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.54</v>
+        <v>4.252</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.738</v>
+        <v>0.199</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.509</v>
+        <v>0.532</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>84.23099999999999</v>
+        <v>67.062</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.849</v>
+        <v>13.698</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.552</v>
+        <v>4.511</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.837</v>
+        <v>8.756</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.836</v>
+        <v>5.087</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.741</v>
+        <v>0.671</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.152</v>
+        <v>10.066</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.904</v>
+        <v>3.686</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.54</v>
+        <v>3.9</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.231</v>
+        <v>4.666</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.135</v>
+        <v>6.215</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.973</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>20.762</v>
+        <v>16.639</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.906</v>
+        <v>2.848</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.942</v>
+        <v>5.338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44076.60486111111</v>
+        <v>45034.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>5.126</v>
+        <v>19.981</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.751</v>
+        <v>15.027</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.874</v>
+        <v>0.921</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>11.498</v>
+        <v>43.703</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>8.815</v>
+        <v>35.711</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>3.613</v>
+        <v>15.331</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>17.264</v>
+        <v>57.172</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>6.325</v>
+        <v>24.262</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.891</v>
+        <v>11.249</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.609</v>
+        <v>16.01</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.584</v>
+        <v>17.493</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>5.026</v>
+        <v>18.773</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.544</v>
+        <v>5.447</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>4.136</v>
+        <v>15.79</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5.654</v>
+        <v>22.226</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.822</v>
+        <v>13.256</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.485</v>
+        <v>0.244</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.354</v>
+        <v>0.825</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.624</v>
+        <v>233.017</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.642</v>
+        <v>44.069</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.817</v>
+        <v>14.575</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.495</v>
+        <v>29.486</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.997</v>
+        <v>15.857</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.518</v>
+        <v>2.084</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.984</v>
+        <v>29.373</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.372</v>
+        <v>12.668</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.131</v>
+        <v>11.601</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.624</v>
+        <v>13.678</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.895</v>
+        <v>18.82</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.644</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.989</v>
+        <v>52.188</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.99</v>
+        <v>8.507999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.773</v>
+        <v>18.015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44076.61180555556</v>
+        <v>45034.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.598</v>
+        <v>21.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.888</v>
+        <v>16.13</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.635</v>
+        <v>46.91</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.585</v>
+        <v>38.44</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.866</v>
+        <v>16.58</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.083</v>
+        <v>65.77</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>8.077</v>
+        <v>26.04</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.687</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.932</v>
+        <v>17.24</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.855</v>
+        <v>18.79</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.331</v>
+        <v>20.08</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.851</v>
+        <v>5.73</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.263</v>
+        <v>16.92</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.296</v>
+        <v>23.93</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.665</v>
+        <v>14.17</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.385</v>
+        <v>0.23</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.351</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.76900000000001</v>
+        <v>250.2</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.688</v>
+        <v>47.32</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.858</v>
+        <v>15.62</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.635</v>
+        <v>31.77</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.12</v>
+        <v>16.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.676</v>
+        <v>2.23</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.269</v>
+        <v>32.73</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.291</v>
+        <v>13.64</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.9</v>
+        <v>12.35</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.55</v>
+        <v>14.54</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.201</v>
+        <v>20.06</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.483</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.289</v>
+        <v>60.05</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.625</v>
+        <v>9.06</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.074</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44076.61875</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>19.86</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>16.01</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>26.83</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>10.99</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.96</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>101.39</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>19.94</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>13.25</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>13.58</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>5.22</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>24.38</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.64</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>8.24</v>
+        <v>19.37</v>
       </c>
     </row>
   </sheetData>
